--- a/DemonstrativoFinanceiro.xlsx
+++ b/DemonstrativoFinanceiro.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ConfirmaçõesPagamentos" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -19,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -81,8 +82,18 @@
       <name val="Calibri"/>
       <b val="1"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="00000000"/>
+      <sz val="23"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="00000000"/>
+      <sz val="22"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -119,8 +130,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eaf51b"/>
+        <bgColor rgb="00eaf51b"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+        <bgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0095b3d7"/>
+        <bgColor rgb="0095b3d7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0028eb13"/>
+        <bgColor rgb="0028eb13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f20c27"/>
+        <bgColor rgb="00f20c27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009bbb59"/>
+        <bgColor rgb="009bbb59"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -218,6 +265,12 @@
       <diagonal/>
     </border>
     <border/>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -225,7 +278,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -251,6 +304,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -618,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -649,12 +716,17 @@
           <t>Saldo Anterior:</t>
         </is>
       </c>
+      <c r="B2" s="24" t="inlineStr">
+        <is>
+          <t>R$615.35</t>
+        </is>
+      </c>
       <c r="C2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="inlineStr">
-        <is>
-          <t>10-2023</t>
+      <c r="A3" s="25" t="inlineStr">
+        <is>
+          <t>03-2024</t>
         </is>
       </c>
     </row>
@@ -682,8 +754,12 @@
           <t>1.1 - Apartamento 101</t>
         </is>
       </c>
-      <c r="B5" s="9" t="n"/>
-      <c r="C5" s="6" t="n"/>
+      <c r="B5" s="26" t="inlineStr">
+        <is>
+          <t>R$100.00</t>
+        </is>
+      </c>
+      <c r="C5" s="27" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="inlineStr">
@@ -691,8 +767,12 @@
           <t>1.2 - Apartamento 102</t>
         </is>
       </c>
-      <c r="B6" s="9" t="n"/>
-      <c r="C6" s="6" t="n"/>
+      <c r="B6" s="26" t="inlineStr">
+        <is>
+          <t>R$100.00</t>
+        </is>
+      </c>
+      <c r="C6" s="27" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="inlineStr">
@@ -700,8 +780,12 @@
           <t>1.3 - Apartamento 201</t>
         </is>
       </c>
-      <c r="B7" s="9" t="n"/>
-      <c r="C7" s="6" t="n"/>
+      <c r="B7" s="26" t="inlineStr">
+        <is>
+          <t>R$100.00</t>
+        </is>
+      </c>
+      <c r="C7" s="27" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="inlineStr">
@@ -709,8 +793,12 @@
           <t>1.4 - Apartamento 202</t>
         </is>
       </c>
-      <c r="B8" s="9" t="n"/>
-      <c r="C8" s="6" t="n"/>
+      <c r="B8" s="26" t="inlineStr">
+        <is>
+          <t>R$100.00</t>
+        </is>
+      </c>
+      <c r="C8" s="27" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="inlineStr">
@@ -718,8 +806,12 @@
           <t>1.5 - Apartamento 301</t>
         </is>
       </c>
-      <c r="B9" s="9" t="n"/>
-      <c r="C9" s="6" t="n"/>
+      <c r="B9" s="26" t="inlineStr">
+        <is>
+          <t>R$100.00</t>
+        </is>
+      </c>
+      <c r="C9" s="27" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="inlineStr">
@@ -727,8 +819,12 @@
           <t>1.6 - Apartamento 302</t>
         </is>
       </c>
-      <c r="B10" s="9" t="n"/>
-      <c r="C10" s="6" t="n"/>
+      <c r="B10" s="26" t="inlineStr">
+        <is>
+          <t>R$100.00</t>
+        </is>
+      </c>
+      <c r="C10" s="27" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="inlineStr">
@@ -736,9 +832,10 @@
           <t>Total de Receitas:</t>
         </is>
       </c>
-      <c r="B12" s="14">
-        <f>SUM(B5:B10)</f>
-        <v/>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>R$600.00</t>
+        </is>
       </c>
       <c r="C12" s="13" t="n"/>
     </row>
@@ -760,64 +857,159 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
-      <c r="B15" s="21" t="n"/>
-      <c r="C15" s="6" t="n"/>
+      <c r="A15" s="28" t="inlineStr">
+        <is>
+          <t>Copasa</t>
+        </is>
+      </c>
+      <c r="B15" s="29" t="inlineStr">
+        <is>
+          <t>R$475.24</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="inlineStr">
+      <c r="A16" s="28" t="inlineStr">
+        <is>
+          <t>Cemig</t>
+        </is>
+      </c>
+      <c r="B16" s="29" t="inlineStr">
+        <is>
+          <t>R$86.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="28" t="inlineStr">
+        <is>
+          <t>Cera</t>
+        </is>
+      </c>
+      <c r="B17" s="29" t="inlineStr">
+        <is>
+          <t>R$11.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="23.25" customHeight="1">
+      <c r="A18" s="28" t="inlineStr">
+        <is>
+          <t>Randup</t>
+        </is>
+      </c>
+      <c r="B18" s="29" t="inlineStr">
+        <is>
+          <t>R$60.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="21" t="n"/>
+      <c r="C19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="inlineStr">
         <is>
           <t>Total de Despesas:</t>
         </is>
       </c>
-      <c r="B16" s="19" t="n"/>
-      <c r="C16" s="20" t="n"/>
-    </row>
-    <row r="18" ht="23.25" customHeight="1">
-      <c r="A18" s="15" t="inlineStr">
+      <c r="B20" s="19" t="inlineStr">
+        <is>
+          <t>R$633.24</t>
+        </is>
+      </c>
+      <c r="C20" s="20" t="n"/>
+    </row>
+    <row r="21"/>
+    <row r="22">
+      <c r="A22" s="15" t="inlineStr">
         <is>
           <t>3-Resumo Financeiro</t>
         </is>
       </c>
-      <c r="B18" s="16" t="inlineStr">
+      <c r="B22" s="16" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="C18" s="17" t="inlineStr">
+      <c r="C22" s="17" t="inlineStr">
         <is>
           <t>Mês em Atraso</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="10" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="10" t="inlineStr">
         <is>
           <t>Saldo Mês anterior:</t>
         </is>
       </c>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="10" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>R$615.35</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="inlineStr">
         <is>
           <t>Receitas Realizadas:</t>
         </is>
       </c>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>R$600.00</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="inlineStr">
         <is>
           <t>Despesas Realizadas</t>
         </is>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>R$633.24</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="30" t="inlineStr">
+        <is>
+          <t>Saldo Atual:</t>
+        </is>
+      </c>
+      <c r="B27" s="31" t="inlineStr">
+        <is>
+          <t>R$582.11</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/DemonstrativoFinanceiro.xlsx
+++ b/DemonstrativoFinanceiro.xlsx
@@ -685,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -718,7 +718,7 @@
       </c>
       <c r="B2" s="24" t="inlineStr">
         <is>
-          <t>R$615.35</t>
+          <t>R$582.11</t>
         </is>
       </c>
       <c r="C2" s="1" t="n"/>
@@ -726,7 +726,7 @@
     <row r="3">
       <c r="A3" s="25" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>R$475.24</t>
+          <t>R$516.03</t>
         </is>
       </c>
     </row>
@@ -876,79 +876,80 @@
       </c>
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>R$86.20</t>
+          <t>R$0.00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="28" t="inlineStr">
         <is>
-          <t>Cera</t>
+          <t>Rebibo para Condominio</t>
         </is>
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>R$11.80</t>
+          <t>R$2.50</t>
         </is>
       </c>
     </row>
     <row r="18" ht="23.25" customHeight="1">
-      <c r="A18" s="28" t="inlineStr">
-        <is>
-          <t>Randup</t>
-        </is>
-      </c>
-      <c r="B18" s="29" t="inlineStr">
-        <is>
-          <t>R$60.00</t>
-        </is>
-      </c>
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="21" t="n"/>
+      <c r="C18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="21" t="n"/>
-      <c r="C19" s="6" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="18" t="inlineStr">
+      <c r="A19" s="18" t="inlineStr">
         <is>
           <t>Total de Despesas:</t>
         </is>
       </c>
-      <c r="B20" s="19" t="inlineStr">
-        <is>
-          <t>R$633.24</t>
-        </is>
-      </c>
-      <c r="C20" s="20" t="n"/>
-    </row>
-    <row r="21"/>
+      <c r="B19" s="19" t="inlineStr">
+        <is>
+          <t>R$518.53</t>
+        </is>
+      </c>
+      <c r="C19" s="20" t="n"/>
+    </row>
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" s="15" t="inlineStr">
+        <is>
+          <t>3-Resumo Financeiro</t>
+        </is>
+      </c>
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="C21" s="17" t="inlineStr">
+        <is>
+          <t>Mês em Atraso</t>
+        </is>
+      </c>
+    </row>
     <row r="22">
-      <c r="A22" s="15" t="inlineStr">
-        <is>
-          <t>3-Resumo Financeiro</t>
-        </is>
-      </c>
-      <c r="B22" s="16" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="C22" s="17" t="inlineStr">
-        <is>
-          <t>Mês em Atraso</t>
-        </is>
-      </c>
+      <c r="A22" s="10" t="inlineStr">
+        <is>
+          <t>Saldo Mês anterior:</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>R$582.11</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="10" t="inlineStr">
         <is>
-          <t>Saldo Mês anterior:</t>
+          <t>Receitas Realizadas:</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>R$615.35</t>
+          <t>R$600.00</t>
         </is>
       </c>
       <c r="C23" s="6" t="n"/>
@@ -956,38 +957,25 @@
     <row r="24">
       <c r="A24" s="10" t="inlineStr">
         <is>
-          <t>Receitas Realizadas:</t>
+          <t>Despesas Realizadas</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>R$600.00</t>
+          <t>R$518.53</t>
         </is>
       </c>
       <c r="C24" s="6" t="n"/>
     </row>
-    <row r="25">
-      <c r="A25" s="10" t="inlineStr">
-        <is>
-          <t>Despesas Realizadas</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
-        <is>
-          <t>R$633.24</t>
-        </is>
-      </c>
-      <c r="C25" s="6" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="30" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="30" t="inlineStr">
         <is>
           <t>Saldo Atual:</t>
         </is>
       </c>
-      <c r="B27" s="31" t="inlineStr">
-        <is>
-          <t>R$582.11</t>
+      <c r="B26" s="31" t="inlineStr">
+        <is>
+          <t>R$663.58</t>
         </is>
       </c>
     </row>

--- a/DemonstrativoFinanceiro.xlsx
+++ b/DemonstrativoFinanceiro.xlsx
@@ -685,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -718,7 +718,7 @@
       </c>
       <c r="B2" s="24" t="inlineStr">
         <is>
-          <t>R$615.35</t>
+          <t>R$100.00</t>
         </is>
       </c>
       <c r="C2" s="1" t="n"/>
@@ -726,7 +726,7 @@
     <row r="3">
       <c r="A3" s="25" t="inlineStr">
         <is>
-          <t>03-2024</t>
+          <t>04-2024</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B5" s="26" t="inlineStr">
         <is>
-          <t>R$100.00</t>
+          <t>R$233.00</t>
         </is>
       </c>
       <c r="C5" s="27" t="inlineStr"/>
@@ -769,7 +769,7 @@
       </c>
       <c r="B6" s="26" t="inlineStr">
         <is>
-          <t>R$100.00</t>
+          <t>R$233.00</t>
         </is>
       </c>
       <c r="C6" s="27" t="inlineStr"/>
@@ -782,7 +782,7 @@
       </c>
       <c r="B7" s="26" t="inlineStr">
         <is>
-          <t>R$100.00</t>
+          <t>R$233.00</t>
         </is>
       </c>
       <c r="C7" s="27" t="inlineStr"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="B8" s="26" t="inlineStr">
         <is>
-          <t>R$100.00</t>
+          <t>R$233.00</t>
         </is>
       </c>
       <c r="C8" s="27" t="inlineStr"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="B9" s="26" t="inlineStr">
         <is>
-          <t>R$100.00</t>
+          <t>R$233.00</t>
         </is>
       </c>
       <c r="C9" s="27" t="inlineStr"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="B10" s="26" t="inlineStr">
         <is>
-          <t>R$100.00</t>
+          <t>R$233.00</t>
         </is>
       </c>
       <c r="C10" s="27" t="inlineStr"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="B12" s="14" t="inlineStr">
         <is>
-          <t>R$600.00</t>
+          <t>R$1398.00</t>
         </is>
       </c>
       <c r="C12" s="13" t="n"/>
@@ -859,135 +859,111 @@
     <row r="15">
       <c r="A15" s="28" t="inlineStr">
         <is>
-          <t>Copasa</t>
+          <t>copasa</t>
         </is>
       </c>
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>R$475.24</t>
+          <t>R$100.00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="28" t="inlineStr">
         <is>
-          <t>Cemig</t>
+          <t>skdks</t>
         </is>
       </c>
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>R$86.20</t>
+          <t>R$232.00</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="28" t="inlineStr">
-        <is>
-          <t>Cera</t>
-        </is>
-      </c>
-      <c r="B17" s="29" t="inlineStr">
-        <is>
-          <t>R$11.80</t>
-        </is>
-      </c>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="21" t="n"/>
+      <c r="C17" s="6" t="n"/>
     </row>
     <row r="18" ht="23.25" customHeight="1">
-      <c r="A18" s="28" t="inlineStr">
-        <is>
-          <t>Randup</t>
-        </is>
-      </c>
-      <c r="B18" s="29" t="inlineStr">
-        <is>
-          <t>R$60.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="n"/>
-      <c r="B19" s="21" t="n"/>
-      <c r="C19" s="6" t="n"/>
-    </row>
+      <c r="A18" s="18" t="inlineStr">
+        <is>
+          <t>Total de Despesas:</t>
+        </is>
+      </c>
+      <c r="B18" s="19" t="inlineStr">
+        <is>
+          <t>R$332.00</t>
+        </is>
+      </c>
+      <c r="C18" s="20" t="n"/>
+    </row>
+    <row r="19"/>
     <row r="20">
-      <c r="A20" s="18" t="inlineStr">
-        <is>
-          <t>Total de Despesas:</t>
-        </is>
-      </c>
-      <c r="B20" s="19" t="inlineStr">
-        <is>
-          <t>R$633.24</t>
-        </is>
-      </c>
-      <c r="C20" s="20" t="n"/>
-    </row>
-    <row r="21"/>
+      <c r="A20" s="15" t="inlineStr">
+        <is>
+          <t>3-Resumo Financeiro</t>
+        </is>
+      </c>
+      <c r="B20" s="16" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="C20" s="17" t="inlineStr">
+        <is>
+          <t>Mês em Atraso</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="inlineStr">
+        <is>
+          <t>Saldo Mês anterior:</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>R$100.00</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n"/>
+    </row>
     <row r="22">
-      <c r="A22" s="15" t="inlineStr">
-        <is>
-          <t>3-Resumo Financeiro</t>
-        </is>
-      </c>
-      <c r="B22" s="16" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="C22" s="17" t="inlineStr">
-        <is>
-          <t>Mês em Atraso</t>
-        </is>
-      </c>
+      <c r="A22" s="10" t="inlineStr">
+        <is>
+          <t>Receitas Realizadas:</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>R$1398.00</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="10" t="inlineStr">
         <is>
-          <t>Saldo Mês anterior:</t>
+          <t>Despesas Realizadas</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>R$615.35</t>
+          <t>R$332.00</t>
         </is>
       </c>
       <c r="C23" s="6" t="n"/>
     </row>
-    <row r="24">
-      <c r="A24" s="10" t="inlineStr">
-        <is>
-          <t>Receitas Realizadas:</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
-        <is>
-          <t>R$600.00</t>
-        </is>
-      </c>
-      <c r="C24" s="6" t="n"/>
-    </row>
     <row r="25">
-      <c r="A25" s="10" t="inlineStr">
-        <is>
-          <t>Despesas Realizadas</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
-        <is>
-          <t>R$633.24</t>
-        </is>
-      </c>
-      <c r="C25" s="6" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="30" t="inlineStr">
+      <c r="A25" s="30" t="inlineStr">
         <is>
           <t>Saldo Atual:</t>
         </is>
       </c>
-      <c r="B27" s="31" t="inlineStr">
-        <is>
-          <t>R$582.11</t>
+      <c r="B25" s="31" t="inlineStr">
+        <is>
+          <t>R$1166.0</t>
         </is>
       </c>
     </row>

--- a/DemonstrativoFinanceiro.xlsx
+++ b/DemonstrativoFinanceiro.xlsx
@@ -685,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -718,7 +718,7 @@
       </c>
       <c r="B2" s="24" t="inlineStr">
         <is>
-          <t>R$582.11</t>
+          <t>R$200.00</t>
         </is>
       </c>
       <c r="C2" s="1" t="n"/>
@@ -859,123 +859,99 @@
     <row r="15">
       <c r="A15" s="28" t="inlineStr">
         <is>
-          <t>Copasa</t>
+          <t>copasaq</t>
         </is>
       </c>
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>R$516.03</t>
+          <t>R$222.00</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="28" t="inlineStr">
-        <is>
-          <t>Cemig</t>
-        </is>
-      </c>
-      <c r="B16" s="29" t="inlineStr">
-        <is>
-          <t>R$0.00</t>
-        </is>
-      </c>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="21" t="n"/>
+      <c r="C16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="28" t="inlineStr">
-        <is>
-          <t>Rebibo para Condominio</t>
-        </is>
-      </c>
-      <c r="B17" s="29" t="inlineStr">
-        <is>
-          <t>R$2.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="23.25" customHeight="1">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="21" t="n"/>
-      <c r="C18" s="6" t="n"/>
-    </row>
+      <c r="A17" s="18" t="inlineStr">
+        <is>
+          <t>Total de Despesas:</t>
+        </is>
+      </c>
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>R$222.00</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="n"/>
+    </row>
+    <row r="18" ht="23.25" customHeight="1"/>
     <row r="19">
-      <c r="A19" s="18" t="inlineStr">
-        <is>
-          <t>Total de Despesas:</t>
-        </is>
-      </c>
-      <c r="B19" s="19" t="inlineStr">
-        <is>
-          <t>R$518.53</t>
-        </is>
-      </c>
-      <c r="C19" s="20" t="n"/>
-    </row>
-    <row r="20"/>
+      <c r="A19" s="15" t="inlineStr">
+        <is>
+          <t>3-Resumo Financeiro</t>
+        </is>
+      </c>
+      <c r="B19" s="16" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="C19" s="17" t="inlineStr">
+        <is>
+          <t>Mês em Atraso</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="inlineStr">
+        <is>
+          <t>Saldo Mês anterior:</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>R$200.00</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n"/>
+    </row>
     <row r="21">
-      <c r="A21" s="15" t="inlineStr">
-        <is>
-          <t>3-Resumo Financeiro</t>
-        </is>
-      </c>
-      <c r="B21" s="16" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="C21" s="17" t="inlineStr">
-        <is>
-          <t>Mês em Atraso</t>
-        </is>
-      </c>
+      <c r="A21" s="10" t="inlineStr">
+        <is>
+          <t>Receitas Realizadas:</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>R$600.00</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="10" t="inlineStr">
         <is>
-          <t>Saldo Mês anterior:</t>
+          <t>Despesas Realizadas</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>R$582.11</t>
+          <t>R$222.00</t>
         </is>
       </c>
       <c r="C22" s="6" t="n"/>
     </row>
-    <row r="23">
-      <c r="A23" s="10" t="inlineStr">
-        <is>
-          <t>Receitas Realizadas:</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
-        <is>
-          <t>R$600.00</t>
-        </is>
-      </c>
-      <c r="C23" s="6" t="n"/>
-    </row>
     <row r="24">
-      <c r="A24" s="10" t="inlineStr">
-        <is>
-          <t>Despesas Realizadas</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
-        <is>
-          <t>R$518.53</t>
-        </is>
-      </c>
-      <c r="C24" s="6" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="30" t="inlineStr">
+      <c r="A24" s="30" t="inlineStr">
         <is>
           <t>Saldo Atual:</t>
         </is>
       </c>
-      <c r="B26" s="31" t="inlineStr">
-        <is>
-          <t>R$663.58</t>
+      <c r="B24" s="31" t="inlineStr">
+        <is>
+          <t>R$578.0</t>
         </is>
       </c>
     </row>

--- a/DemonstrativoFinanceiro.xlsx
+++ b/DemonstrativoFinanceiro.xlsx
@@ -278,7 +278,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -311,8 +311,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,7 +686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -718,7 +719,7 @@
       </c>
       <c r="B2" s="24" t="inlineStr">
         <is>
-          <t>R$100.00</t>
+          <t>R$1000.00</t>
         </is>
       </c>
       <c r="C2" s="1" t="n"/>
@@ -756,7 +757,7 @@
       </c>
       <c r="B5" s="26" t="inlineStr">
         <is>
-          <t>R$233.00</t>
+          <t>R$100.00</t>
         </is>
       </c>
       <c r="C5" s="27" t="inlineStr"/>
@@ -767,12 +768,12 @@
           <t>1.2 - Apartamento 102</t>
         </is>
       </c>
-      <c r="B6" s="26" t="inlineStr">
-        <is>
-          <t>R$233.00</t>
-        </is>
-      </c>
-      <c r="C6" s="27" t="inlineStr"/>
+      <c r="B6" s="28" t="inlineStr"/>
+      <c r="C6" s="29" t="inlineStr">
+        <is>
+          <t>Não Pago</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="inlineStr">
@@ -782,7 +783,7 @@
       </c>
       <c r="B7" s="26" t="inlineStr">
         <is>
-          <t>R$233.00</t>
+          <t>R$100.00</t>
         </is>
       </c>
       <c r="C7" s="27" t="inlineStr"/>
@@ -795,7 +796,7 @@
       </c>
       <c r="B8" s="26" t="inlineStr">
         <is>
-          <t>R$233.00</t>
+          <t>R$100.00</t>
         </is>
       </c>
       <c r="C8" s="27" t="inlineStr"/>
@@ -808,7 +809,7 @@
       </c>
       <c r="B9" s="26" t="inlineStr">
         <is>
-          <t>R$233.00</t>
+          <t>R$100.00</t>
         </is>
       </c>
       <c r="C9" s="27" t="inlineStr"/>
@@ -819,12 +820,12 @@
           <t>1.6 - Apartamento 302</t>
         </is>
       </c>
-      <c r="B10" s="26" t="inlineStr">
-        <is>
-          <t>R$233.00</t>
-        </is>
-      </c>
-      <c r="C10" s="27" t="inlineStr"/>
+      <c r="B10" s="28" t="inlineStr"/>
+      <c r="C10" s="29" t="inlineStr">
+        <is>
+          <t>Não Pago</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="inlineStr">
@@ -834,7 +835,7 @@
       </c>
       <c r="B12" s="14" t="inlineStr">
         <is>
-          <t>R$1398.00</t>
+          <t>R$400.00</t>
         </is>
       </c>
       <c r="C12" s="13" t="n"/>
@@ -857,74 +858,75 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="28" t="inlineStr">
+      <c r="A15" s="30" t="inlineStr">
         <is>
           <t>copasa</t>
         </is>
       </c>
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>R$100.00</t>
+          <t>R$200.00</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="28" t="inlineStr">
-        <is>
-          <t>skdks</t>
-        </is>
-      </c>
-      <c r="B16" s="29" t="inlineStr">
-        <is>
-          <t>R$232.00</t>
-        </is>
-      </c>
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="21" t="n"/>
+      <c r="C16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="21" t="n"/>
-      <c r="C17" s="6" t="n"/>
-    </row>
-    <row r="18" ht="23.25" customHeight="1">
-      <c r="A18" s="18" t="inlineStr">
+      <c r="A17" s="18" t="inlineStr">
         <is>
           <t>Total de Despesas:</t>
         </is>
       </c>
-      <c r="B18" s="19" t="inlineStr">
-        <is>
-          <t>R$332.00</t>
-        </is>
-      </c>
-      <c r="C18" s="20" t="n"/>
-    </row>
-    <row r="19"/>
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>R$200.00</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="n"/>
+    </row>
+    <row r="18" ht="23.25" customHeight="1"/>
+    <row r="19">
+      <c r="A19" s="15" t="inlineStr">
+        <is>
+          <t>3-Resumo Financeiro</t>
+        </is>
+      </c>
+      <c r="B19" s="16" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="C19" s="17" t="inlineStr">
+        <is>
+          <t>Mês em Atraso</t>
+        </is>
+      </c>
+    </row>
     <row r="20">
-      <c r="A20" s="15" t="inlineStr">
-        <is>
-          <t>3-Resumo Financeiro</t>
-        </is>
-      </c>
-      <c r="B20" s="16" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="C20" s="17" t="inlineStr">
-        <is>
-          <t>Mês em Atraso</t>
-        </is>
-      </c>
+      <c r="A20" s="10" t="inlineStr">
+        <is>
+          <t>Saldo Mês anterior:</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>R$1000.00</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="10" t="inlineStr">
         <is>
-          <t>Saldo Mês anterior:</t>
+          <t>Receitas Realizadas:</t>
         </is>
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>R$100.00</t>
+          <t>R$400.00</t>
         </is>
       </c>
       <c r="C21" s="6" t="n"/>
@@ -932,38 +934,25 @@
     <row r="22">
       <c r="A22" s="10" t="inlineStr">
         <is>
-          <t>Receitas Realizadas:</t>
+          <t>Despesas Realizadas</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>R$1398.00</t>
+          <t>R$200.00</t>
         </is>
       </c>
       <c r="C22" s="6" t="n"/>
     </row>
-    <row r="23">
-      <c r="A23" s="10" t="inlineStr">
-        <is>
-          <t>Despesas Realizadas</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
-        <is>
-          <t>R$332.00</t>
-        </is>
-      </c>
-      <c r="C23" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="30" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="31" t="inlineStr">
         <is>
           <t>Saldo Atual:</t>
         </is>
       </c>
-      <c r="B25" s="31" t="inlineStr">
-        <is>
-          <t>R$1166.0</t>
+      <c r="B24" s="32" t="inlineStr">
+        <is>
+          <t>R$1200.0</t>
         </is>
       </c>
     </row>
